--- a/evaluation/manatee/manatee.RT-PCR_Support.xlsx
+++ b/evaluation/manatee/manatee.RT-PCR_Support.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markd/tmp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markd/compbio/gencode/projs/lrgasp/experimental-eval/evaluation/manatee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2745988-2262-3244-9E21-B429A7F23EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105EDE67-FBE4-BE42-AD70-F555060DB60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="190">
   <si>
     <t>coiumn</t>
   </si>
@@ -471,6 +471,126 @@
   </si>
   <si>
     <t>NNC-302078</t>
+  </si>
+  <si>
+    <t>left_primer</t>
+  </si>
+  <si>
+    <t>right_primer</t>
+  </si>
+  <si>
+    <t>AGGTGGTTTTAGGAGCACACT</t>
+  </si>
+  <si>
+    <t>ACTAGATGCCAACTGTGCCC</t>
+  </si>
+  <si>
+    <t>GTGGATACTGACAGCAGCCC</t>
+  </si>
+  <si>
+    <t>GAGTGTGCTCCTAAAACCACC</t>
+  </si>
+  <si>
+    <t>CCAGCTTGATTCCCTCAGCA</t>
+  </si>
+  <si>
+    <t>CAAAAAGGTCCAGGCTGCAG</t>
+  </si>
+  <si>
+    <t>CACAGTCCTTCCTGACCACC</t>
+  </si>
+  <si>
+    <t>TGCTGAGGGAATCAAGCTGG</t>
+  </si>
+  <si>
+    <t>TCATTGAGGTGAAGGGCCTG</t>
+  </si>
+  <si>
+    <t>CTTTGAGACTGATGGCCCCA</t>
+  </si>
+  <si>
+    <t>CAGCCTCGGTGAAAGGACTT</t>
+  </si>
+  <si>
+    <t>GCCACATACCAGGTGCTGAG</t>
+  </si>
+  <si>
+    <t>CGAAGCTTGTCTTTGGTGGC</t>
+  </si>
+  <si>
+    <t>CAACAGGCCACTCCAGGATT</t>
+  </si>
+  <si>
+    <t>GGGAGCGTAATGTAGGTGGG</t>
+  </si>
+  <si>
+    <t>AGGCCACTCCAGGATTCTCT</t>
+  </si>
+  <si>
+    <t>CTCAGCCTCGGTGAAAGGAC</t>
+  </si>
+  <si>
+    <t>GACACAGCAACAACTGGAGC</t>
+  </si>
+  <si>
+    <t>AGGCAATCCAGTTGTTCAGGA</t>
+  </si>
+  <si>
+    <t>CGGTAGCAATTGCCCGACTA</t>
+  </si>
+  <si>
+    <t>ACAGATCGATACGTGCCCAC</t>
+  </si>
+  <si>
+    <t>GCATACCTATGACCCCGACC</t>
+  </si>
+  <si>
+    <t>TGAACCACAGCCCTTCTGAC</t>
+  </si>
+  <si>
+    <t>TTCAGGCTTTCCCCAGCATT</t>
+  </si>
+  <si>
+    <t>TTCTTGGAACGCATCGGGAA</t>
+  </si>
+  <si>
+    <t>AGCCTGACCCATCTTACAAGC</t>
+  </si>
+  <si>
+    <t>GTCCTGCTGATAGCTGTCCC</t>
+  </si>
+  <si>
+    <t>CTGACTGGACTCTTCCGCC</t>
+  </si>
+  <si>
+    <t>GCTTGTAAGATGGGTCAGGCT</t>
+  </si>
+  <si>
+    <t>CATTGCCTACGCCCTTCCG</t>
+  </si>
+  <si>
+    <t>CGTGAAGATGGGGCACTAGG</t>
+  </si>
+  <si>
+    <t>AAGAGACACAGCCCACGTAC</t>
+  </si>
+  <si>
+    <t>CTGCTTCTTGTGGACTGGGT</t>
+  </si>
+  <si>
+    <t>CAAGAGACACAGCCCACGTA</t>
+  </si>
+  <si>
+    <t>TCAAGGAGACTGACACACGC</t>
+  </si>
+  <si>
+    <t>GGCAACGCTCACAAAATCCA</t>
+  </si>
+  <si>
+    <t>5' primer sequence for target</t>
+  </si>
+  <si>
+    <t>3' primer sequence for target</t>
   </si>
 </sst>
 </file>
@@ -534,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -563,29 +683,20 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -646,6 +757,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFF3F3F3"/>
           <bgColor rgb="FFF3F3F3"/>
         </patternFill>
@@ -687,7 +806,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:B30" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:B32" headerRowCount="0">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -902,11 +1021,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1041,113 +1160,129 @@
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1164,13 +1299,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V108"/>
+  <dimension ref="A1:X108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" sqref="A1:X1 D4 M4 Q4:X4 D6 M6 Q6:X6 D8 Q8:X8 M10 Q10:X10 D10:D12 M12 Q12:X12 M14 Q14:X14 D14:D16 M16 Q16:X16 M18 Q18:X18 M20 Q20:X20 Q22:X22 Q24:X24 Q26:X26 Q28:X28 Q30:X30 Q32:X32 Q34:X34 Q36:X36 D18:D38 Q38:X38 M40 Q40:X40 M42 Q42:X42 M44 Q44:X44 M46 Q46:X46 N3:N47 M48:N48 Q48:X48 Q50:X50 M52 Q52:X52 N50:N53 D40:D54 M54:N54 Q54:X54 D56 N56 Q56:X56 D58 N58 Q58:X58 N60 Q60:X60 D60:D62 Q62:X62 M64 Q64:X64 M66 Q66:X66 M68 Q68:X68 N62:N70 Q70:X70 Q72:X72 D64:D74 M74 Q74:X74 D76 M76 Q76:X76 M78 Q78:X78 M80 Q80:X80 D78:D82 M82 Q82:X82 D84 M84 Q84:X84 D86 M86 Q86:X86 D88 M88 Q88:X88 N72:N89 D90 M90:N90 Q90:X90 D92 N92 Q92:X92 D94 Q94:X94 N94:N95 D96 M96:N96 Q96:X96 N98 Q98:X98 Q100:X100 D98:D102 M102 Q102:X102 M104 Q104:X104 M106 Q106:X106 N100:N107 D104:D108 M108:N108 Q108:X108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1188,15 +1323,17 @@
     <col min="12" max="12" width="6.33203125" customWidth="1"/>
     <col min="13" max="13" width="10.1640625" customWidth="1"/>
     <col min="14" max="14" width="49.33203125" customWidth="1"/>
-    <col min="15" max="17" width="9" customWidth="1"/>
-    <col min="18" max="18" width="13.5" customWidth="1"/>
-    <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="13.33203125" customWidth="1"/>
-    <col min="21" max="21" width="14.6640625" customWidth="1"/>
-    <col min="22" max="22" width="15.1640625" customWidth="1"/>
+    <col min="15" max="15" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9" customWidth="1"/>
+    <col min="20" max="20" width="13.5" customWidth="1"/>
+    <col min="21" max="21" width="14" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" customWidth="1"/>
+    <col min="23" max="23" width="14.6640625" customWidth="1"/>
+    <col min="24" max="24" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" customHeight="1">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1205,28 +1342,28 @@
       <c r="F1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="17"/>
+      <c r="G1" s="18"/>
       <c r="H1" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
       <c r="K1" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="17"/>
+      <c r="L1" s="18"/>
       <c r="M1" s="3"/>
       <c r="N1" s="9"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="11"/>
       <c r="T1" s="9"/>
       <c r="U1" s="9"/>
       <c r="V1" s="9"/>
-    </row>
-    <row r="2" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+    </row>
+    <row r="2" spans="1:24" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1269,32 +1406,38 @@
       <c r="N2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" customHeight="1">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>65</v>
       </c>
@@ -1335,32 +1478,38 @@
         <v>63</v>
       </c>
       <c r="N3" s="7"/>
-      <c r="O3" s="12">
+      <c r="O3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q3" s="12">
         <v>1796</v>
       </c>
-      <c r="P3" s="12">
+      <c r="R3" s="12">
         <v>671</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="S3" s="13">
         <v>11.947916377970399</v>
       </c>
-      <c r="R3" s="6">
-        <v>1</v>
-      </c>
-      <c r="S3" s="6">
-        <v>3</v>
-      </c>
       <c r="T3" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U3" s="6">
         <v>3</v>
       </c>
       <c r="V3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="15.75" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="W3" s="6">
+        <v>3</v>
+      </c>
+      <c r="X3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>65</v>
       </c>
@@ -1397,16 +1546,22 @@
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
+      <c r="O4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="13"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
-    </row>
-    <row r="5" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>65</v>
       </c>
@@ -1447,32 +1602,38 @@
         <v>61</v>
       </c>
       <c r="N5" s="7"/>
-      <c r="O5" s="12">
+      <c r="O5" t="s">
+        <v>154</v>
+      </c>
+      <c r="P5" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q5" s="12">
         <v>1796</v>
       </c>
-      <c r="P5" s="12">
+      <c r="R5" s="12">
         <v>78</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="S5" s="13">
         <v>11.947916377970399</v>
       </c>
-      <c r="R5" s="6">
-        <v>1</v>
-      </c>
-      <c r="S5" s="6">
-        <v>3</v>
-      </c>
       <c r="T5" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U5" s="6">
         <v>3</v>
       </c>
       <c r="V5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="15.75" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="W5" s="6">
+        <v>3</v>
+      </c>
+      <c r="X5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>65</v>
       </c>
@@ -1509,16 +1670,22 @@
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
+      <c r="O6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P6" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="13"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
-    </row>
-    <row r="7" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>65</v>
       </c>
@@ -1558,35 +1725,41 @@
       <c r="M7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="N7" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q7" s="12">
         <v>1796</v>
       </c>
-      <c r="P7" s="12">
+      <c r="R7" s="12">
         <v>727</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="S7" s="13">
         <v>11.947916377970399</v>
       </c>
-      <c r="R7" s="6">
-        <v>1</v>
-      </c>
-      <c r="S7" s="6">
-        <v>3</v>
-      </c>
       <c r="T7" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U7" s="6">
         <v>3</v>
       </c>
       <c r="V7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="15.75" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="W7" s="6">
+        <v>3</v>
+      </c>
+      <c r="X7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15.75" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>65</v>
       </c>
@@ -1625,16 +1798,22 @@
         <v>64</v>
       </c>
       <c r="N8" s="17"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
+      <c r="O8" t="s">
+        <v>154</v>
+      </c>
+      <c r="P8" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="13"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
-    </row>
-    <row r="9" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>72</v>
       </c>
@@ -1675,32 +1854,38 @@
         <v>63</v>
       </c>
       <c r="N9" s="7"/>
-      <c r="O9" s="12">
+      <c r="O9" t="s">
+        <v>156</v>
+      </c>
+      <c r="P9" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q9" s="12">
         <v>3782</v>
       </c>
-      <c r="P9" s="12">
+      <c r="R9" s="12">
         <v>1586</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="S9" s="13">
         <v>2.0138695243560298</v>
       </c>
-      <c r="R9" s="6">
-        <v>0</v>
-      </c>
-      <c r="S9" s="6">
-        <v>2</v>
-      </c>
       <c r="T9" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U9" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="W9" s="6">
+        <v>1</v>
+      </c>
+      <c r="X9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>72</v>
       </c>
@@ -1737,16 +1922,22 @@
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
+      <c r="O10" t="s">
+        <v>156</v>
+      </c>
+      <c r="P10" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="13"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
-    </row>
-    <row r="11" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+    </row>
+    <row r="11" spans="1:24" ht="15.75" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>72</v>
       </c>
@@ -1785,32 +1976,38 @@
         <v>63</v>
       </c>
       <c r="N11" s="7"/>
-      <c r="O11" s="12">
+      <c r="O11" t="s">
+        <v>156</v>
+      </c>
+      <c r="P11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q11" s="12">
         <v>4683</v>
       </c>
-      <c r="P11" s="12">
+      <c r="R11" s="12">
         <v>2584</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="S11" s="13">
         <v>9.6138179791719107</v>
       </c>
-      <c r="R11" s="6">
-        <v>0</v>
-      </c>
-      <c r="S11" s="6">
-        <v>2</v>
-      </c>
       <c r="T11" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U11" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V11" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="W11" s="6">
+        <v>1</v>
+      </c>
+      <c r="X11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15.75" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>72</v>
       </c>
@@ -1847,16 +2044,22 @@
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
+      <c r="O12" t="s">
+        <v>156</v>
+      </c>
+      <c r="P12" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="13"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
-    </row>
-    <row r="13" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>72</v>
       </c>
@@ -1897,32 +2100,38 @@
         <v>63</v>
       </c>
       <c r="N13" s="7"/>
-      <c r="O13" s="12">
+      <c r="O13" t="s">
+        <v>158</v>
+      </c>
+      <c r="P13" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q13" s="12">
         <v>3782</v>
       </c>
-      <c r="P13" s="12">
+      <c r="R13" s="12">
         <v>1396</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="S13" s="13">
         <v>2.0138695243560298</v>
       </c>
-      <c r="R13" s="6">
-        <v>0</v>
-      </c>
-      <c r="S13" s="6">
-        <v>2</v>
-      </c>
       <c r="T13" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U13" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V13" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="W13" s="6">
+        <v>1</v>
+      </c>
+      <c r="X13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>72</v>
       </c>
@@ -1959,16 +2168,22 @@
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
+      <c r="O14" t="s">
+        <v>158</v>
+      </c>
+      <c r="P14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="13"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
-    </row>
-    <row r="15" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>72</v>
       </c>
@@ -2007,32 +2222,38 @@
         <v>63</v>
       </c>
       <c r="N15" s="7"/>
-      <c r="O15" s="12">
+      <c r="O15" t="s">
+        <v>158</v>
+      </c>
+      <c r="P15" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q15" s="12">
         <v>4683</v>
       </c>
-      <c r="P15" s="12">
+      <c r="R15" s="12">
         <v>379</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="S15" s="13">
         <v>9.6138179791719107</v>
       </c>
-      <c r="R15" s="6">
-        <v>0</v>
-      </c>
-      <c r="S15" s="6">
-        <v>2</v>
-      </c>
       <c r="T15" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U15" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V15" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="W15" s="6">
+        <v>1</v>
+      </c>
+      <c r="X15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>72</v>
       </c>
@@ -2069,16 +2290,22 @@
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
+      <c r="O16" t="s">
+        <v>158</v>
+      </c>
+      <c r="P16" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="13"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
-    </row>
-    <row r="17" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+    </row>
+    <row r="17" spans="1:24" ht="15.75" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>72</v>
       </c>
@@ -2119,32 +2346,38 @@
         <v>63</v>
       </c>
       <c r="N17" s="7"/>
-      <c r="O17" s="12">
+      <c r="O17" t="s">
+        <v>158</v>
+      </c>
+      <c r="P17" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q17" s="12">
         <v>3782</v>
       </c>
-      <c r="P17" s="12">
+      <c r="R17" s="12">
         <v>1195</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="S17" s="13">
         <v>2.0138695243560298</v>
       </c>
-      <c r="R17" s="6">
-        <v>0</v>
-      </c>
-      <c r="S17" s="6">
-        <v>2</v>
-      </c>
       <c r="T17" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U17" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V17" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="W17" s="6">
+        <v>1</v>
+      </c>
+      <c r="X17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="15.75" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>72</v>
       </c>
@@ -2181,16 +2414,22 @@
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="7"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
+      <c r="O18" t="s">
+        <v>158</v>
+      </c>
+      <c r="P18" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="13"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
-    </row>
-    <row r="19" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+    </row>
+    <row r="19" spans="1:24" ht="15.75" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>72</v>
       </c>
@@ -2229,32 +2468,38 @@
         <v>63</v>
       </c>
       <c r="N19" s="7"/>
-      <c r="O19" s="12">
+      <c r="O19" t="s">
+        <v>158</v>
+      </c>
+      <c r="P19" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q19" s="12">
         <v>2037</v>
       </c>
-      <c r="P19" s="12">
+      <c r="R19" s="12">
         <v>1195</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="S19" s="13">
         <v>1.06503174447716</v>
       </c>
-      <c r="R19" s="6">
-        <v>0</v>
-      </c>
-      <c r="S19" s="6">
-        <v>2</v>
-      </c>
       <c r="T19" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U19" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V19" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="W19" s="6">
+        <v>1</v>
+      </c>
+      <c r="X19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="15.75" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>72</v>
       </c>
@@ -2291,16 +2536,22 @@
       </c>
       <c r="M20" s="6"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
+      <c r="O20" t="s">
+        <v>158</v>
+      </c>
+      <c r="P20" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="13"/>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
-    </row>
-    <row r="21" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+    </row>
+    <row r="21" spans="1:24" ht="15.75" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>72</v>
       </c>
@@ -2338,35 +2589,41 @@
       <c r="M21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N21" s="16" t="s">
+      <c r="N21" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" t="s">
+        <v>158</v>
+      </c>
+      <c r="P21" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q21" s="12">
         <v>1845</v>
       </c>
-      <c r="P21" s="12">
+      <c r="R21" s="12">
         <v>178</v>
       </c>
-      <c r="Q21" s="13">
+      <c r="S21" s="13">
         <v>5.4023198207813996</v>
       </c>
-      <c r="R21" s="6">
-        <v>0</v>
-      </c>
-      <c r="S21" s="6">
-        <v>2</v>
-      </c>
       <c r="T21" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U21" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V21" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="W21" s="6">
+        <v>1</v>
+      </c>
+      <c r="X21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="15.75" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>72</v>
       </c>
@@ -2405,16 +2662,22 @@
         <v>64</v>
       </c>
       <c r="N22" s="17"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
+      <c r="O22" t="s">
+        <v>158</v>
+      </c>
+      <c r="P22" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="13"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
-    </row>
-    <row r="23" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+    </row>
+    <row r="23" spans="1:24" ht="15.75" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>72</v>
       </c>
@@ -2452,35 +2715,41 @@
       <c r="M23" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N23" s="19" t="s">
+      <c r="N23" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="O23" s="12">
+      <c r="O23" t="s">
+        <v>158</v>
+      </c>
+      <c r="P23" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q23" s="12">
         <v>4683</v>
       </c>
-      <c r="P23" s="12">
+      <c r="R23" s="12">
         <v>178</v>
       </c>
-      <c r="Q23" s="13">
+      <c r="S23" s="13">
         <v>9.6138179791719107</v>
       </c>
-      <c r="R23" s="6">
-        <v>0</v>
-      </c>
-      <c r="S23" s="6">
-        <v>2</v>
-      </c>
       <c r="T23" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U23" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V23" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="W23" s="6">
+        <v>1</v>
+      </c>
+      <c r="X23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="15.75" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>72</v>
       </c>
@@ -2518,17 +2787,23 @@
       <c r="M24" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="N24" s="17"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
+      <c r="N24" s="16"/>
+      <c r="O24" t="s">
+        <v>158</v>
+      </c>
+      <c r="P24" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="13"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
-    </row>
-    <row r="25" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+    </row>
+    <row r="25" spans="1:24" ht="15.75" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>72</v>
       </c>
@@ -2566,35 +2841,41 @@
       <c r="M25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N25" s="19" t="s">
+      <c r="N25" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="O25" s="12">
+      <c r="O25" t="s">
+        <v>158</v>
+      </c>
+      <c r="P25" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q25" s="12">
         <v>1157</v>
       </c>
-      <c r="P25" s="12">
+      <c r="R25" s="12">
         <v>178</v>
       </c>
-      <c r="Q25" s="13">
+      <c r="S25" s="13">
         <v>1.51396661156926</v>
       </c>
-      <c r="R25" s="6">
-        <v>0</v>
-      </c>
-      <c r="S25" s="6">
-        <v>2</v>
-      </c>
       <c r="T25" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U25" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V25" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="W25" s="6">
+        <v>1</v>
+      </c>
+      <c r="X25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="15.75" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>72</v>
       </c>
@@ -2632,17 +2913,23 @@
       <c r="M26" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="N26" s="17"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
+      <c r="N26" s="16"/>
+      <c r="O26" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="13"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
-    </row>
-    <row r="27" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+    </row>
+    <row r="27" spans="1:24" ht="15.75" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>72</v>
       </c>
@@ -2680,35 +2967,41 @@
       <c r="M27" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="N27" s="19" t="s">
+      <c r="N27" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="O27" s="12">
+      <c r="O27" t="s">
+        <v>158</v>
+      </c>
+      <c r="P27" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q27" s="12">
         <v>1796</v>
       </c>
-      <c r="P27" s="12">
+      <c r="R27" s="12">
         <v>178</v>
       </c>
-      <c r="Q27" s="13">
+      <c r="S27" s="13">
         <v>67.545526203639596</v>
       </c>
-      <c r="R27" s="6">
-        <v>1</v>
-      </c>
-      <c r="S27" s="6">
-        <v>2</v>
-      </c>
       <c r="T27" s="6">
+        <v>1</v>
+      </c>
+      <c r="U27" s="6">
+        <v>2</v>
+      </c>
+      <c r="V27" s="6">
         <v>3</v>
       </c>
-      <c r="U27" s="6">
+      <c r="W27" s="6">
         <v>3</v>
       </c>
-      <c r="V27" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="15.75" customHeight="1">
+      <c r="X27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="15.75" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>72</v>
       </c>
@@ -2746,17 +3039,23 @@
       <c r="M28" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="N28" s="17"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
+      <c r="N28" s="16"/>
+      <c r="O28" t="s">
+        <v>158</v>
+      </c>
+      <c r="P28" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="13"/>
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
-    </row>
-    <row r="29" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+    </row>
+    <row r="29" spans="1:24" ht="15.75" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>72</v>
       </c>
@@ -2794,35 +3093,41 @@
       <c r="M29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N29" s="19" t="s">
+      <c r="N29" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="O29" s="12">
+      <c r="O29" t="s">
+        <v>158</v>
+      </c>
+      <c r="P29" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q29" s="12">
         <v>3846</v>
       </c>
-      <c r="P29" s="12">
+      <c r="R29" s="12">
         <v>178</v>
       </c>
-      <c r="Q29" s="13">
+      <c r="S29" s="13">
         <v>2.8517351799247801</v>
       </c>
-      <c r="R29" s="6">
-        <v>0</v>
-      </c>
-      <c r="S29" s="6">
+      <c r="T29" s="6">
+        <v>0</v>
+      </c>
+      <c r="U29" s="6">
         <v>3</v>
       </c>
-      <c r="T29" s="6">
+      <c r="V29" s="6">
         <v>3</v>
       </c>
-      <c r="U29" s="6">
-        <v>2</v>
-      </c>
-      <c r="V29" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W29" s="6">
+        <v>2</v>
+      </c>
+      <c r="X29" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="15.75" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>72</v>
       </c>
@@ -2860,17 +3165,23 @@
       <c r="M30" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="N30" s="17"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
+      <c r="N30" s="16"/>
+      <c r="O30" t="s">
+        <v>158</v>
+      </c>
+      <c r="P30" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="13"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
-    </row>
-    <row r="31" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+    </row>
+    <row r="31" spans="1:24" ht="15.75" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>72</v>
       </c>
@@ -2908,35 +3219,41 @@
       <c r="M31" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="N31" s="19" t="s">
+      <c r="N31" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="O31" s="12">
+      <c r="O31" t="s">
+        <v>158</v>
+      </c>
+      <c r="P31" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q31" s="12">
         <v>1462</v>
       </c>
-      <c r="P31" s="12">
+      <c r="R31" s="12">
         <v>178</v>
       </c>
-      <c r="Q31" s="13">
+      <c r="S31" s="13">
         <v>1.11875230659168</v>
       </c>
-      <c r="R31" s="6">
-        <v>0</v>
-      </c>
-      <c r="S31" s="6">
-        <v>1</v>
-      </c>
       <c r="T31" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W31" s="6">
+        <v>0</v>
+      </c>
+      <c r="X31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="15.75" customHeight="1">
       <c r="A32" s="6" t="s">
         <v>72</v>
       </c>
@@ -2974,17 +3291,23 @@
       <c r="M32" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="N32" s="17"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
+      <c r="N32" s="16"/>
+      <c r="O32" t="s">
+        <v>158</v>
+      </c>
+      <c r="P32" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="13"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
-    </row>
-    <row r="33" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+    </row>
+    <row r="33" spans="1:24" ht="15.75" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>72</v>
       </c>
@@ -3022,35 +3345,41 @@
       <c r="M33" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N33" s="19" t="s">
+      <c r="N33" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="O33" s="12">
+      <c r="O33" t="s">
+        <v>158</v>
+      </c>
+      <c r="P33" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q33" s="12">
         <v>1323</v>
       </c>
-      <c r="P33" s="12">
+      <c r="R33" s="12">
         <v>178</v>
       </c>
-      <c r="Q33" s="13">
+      <c r="S33" s="13">
         <v>2.7979084017883702</v>
       </c>
-      <c r="R33" s="6">
-        <v>0</v>
-      </c>
-      <c r="S33" s="6">
-        <v>1</v>
-      </c>
       <c r="T33" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W33" s="6">
+        <v>0</v>
+      </c>
+      <c r="X33" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="15.75" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>72</v>
       </c>
@@ -3088,17 +3417,23 @@
       <c r="M34" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="N34" s="17"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
+      <c r="N34" s="16"/>
+      <c r="O34" t="s">
+        <v>158</v>
+      </c>
+      <c r="P34" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="13"/>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
-    </row>
-    <row r="35" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+    </row>
+    <row r="35" spans="1:24" ht="15.75" customHeight="1">
       <c r="A35" s="6" t="s">
         <v>72</v>
       </c>
@@ -3136,35 +3471,41 @@
       <c r="M35" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="N35" s="16" t="s">
+      <c r="N35" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="O35" s="12">
+      <c r="O35" t="s">
+        <v>158</v>
+      </c>
+      <c r="P35" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q35" s="12">
         <v>1584</v>
       </c>
-      <c r="P35" s="12">
+      <c r="R35" s="12">
         <v>178</v>
       </c>
-      <c r="Q35" s="13">
+      <c r="S35" s="13">
         <v>4.6099719969720798</v>
       </c>
-      <c r="R35" s="6">
-        <v>0</v>
-      </c>
-      <c r="S35" s="6">
-        <v>1</v>
-      </c>
       <c r="T35" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W35" s="6">
+        <v>0</v>
+      </c>
+      <c r="X35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="15.75" customHeight="1">
       <c r="A36" s="6" t="s">
         <v>72</v>
       </c>
@@ -3203,16 +3544,22 @@
         <v>64</v>
       </c>
       <c r="N36" s="17"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
+      <c r="O36" t="s">
+        <v>158</v>
+      </c>
+      <c r="P36" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="13"/>
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
-    </row>
-    <row r="37" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+    </row>
+    <row r="37" spans="1:24" ht="15.75" customHeight="1">
       <c r="A37" s="6" t="s">
         <v>72</v>
       </c>
@@ -3250,35 +3597,41 @@
       <c r="M37" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N37" s="19" t="s">
+      <c r="N37" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="O37" s="12">
+      <c r="O37" t="s">
+        <v>158</v>
+      </c>
+      <c r="P37" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q37" s="12">
         <v>1563</v>
       </c>
-      <c r="P37" s="12">
+      <c r="R37" s="12">
         <v>178</v>
       </c>
-      <c r="Q37" s="13">
+      <c r="S37" s="13">
         <v>49.504841044761697</v>
       </c>
-      <c r="R37" s="6">
-        <v>0</v>
-      </c>
-      <c r="S37" s="6">
-        <v>1</v>
-      </c>
       <c r="T37" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37" s="6">
         <v>1</v>
       </c>
       <c r="V37" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="W37" s="6">
+        <v>1</v>
+      </c>
+      <c r="X37" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="15.75" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>72</v>
       </c>
@@ -3316,17 +3669,23 @@
       <c r="M38" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="N38" s="17"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
+      <c r="N38" s="16"/>
+      <c r="O38" t="s">
+        <v>158</v>
+      </c>
+      <c r="P38" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="13"/>
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
-    </row>
-    <row r="39" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+    </row>
+    <row r="39" spans="1:24" ht="15.75" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>72</v>
       </c>
@@ -3367,32 +3726,38 @@
         <v>63</v>
       </c>
       <c r="N39" s="7"/>
-      <c r="O39" s="12">
+      <c r="O39" t="s">
+        <v>161</v>
+      </c>
+      <c r="P39" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q39" s="12">
         <v>1845</v>
       </c>
-      <c r="P39" s="12">
+      <c r="R39" s="12">
         <v>1266</v>
       </c>
-      <c r="Q39" s="13">
+      <c r="S39" s="13">
         <v>5.4023198207813996</v>
       </c>
-      <c r="R39" s="6">
-        <v>0</v>
-      </c>
-      <c r="S39" s="6">
-        <v>2</v>
-      </c>
       <c r="T39" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U39" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V39" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="W39" s="6">
+        <v>1</v>
+      </c>
+      <c r="X39" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="15.75" customHeight="1">
       <c r="A40" s="6" t="s">
         <v>72</v>
       </c>
@@ -3429,16 +3794,22 @@
       </c>
       <c r="M40" s="6"/>
       <c r="N40" s="7"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
+      <c r="O40" t="s">
+        <v>161</v>
+      </c>
+      <c r="P40" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="13"/>
       <c r="T40" s="6"/>
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
-    </row>
-    <row r="41" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+    </row>
+    <row r="41" spans="1:24" ht="15.75" customHeight="1">
       <c r="A41" s="6" t="s">
         <v>72</v>
       </c>
@@ -3477,32 +3848,38 @@
         <v>61</v>
       </c>
       <c r="N41" s="7"/>
-      <c r="O41" s="12">
+      <c r="O41" t="s">
+        <v>161</v>
+      </c>
+      <c r="P41" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q41" s="12">
         <v>1157</v>
       </c>
-      <c r="P41" s="12">
+      <c r="R41" s="12">
         <v>916</v>
       </c>
-      <c r="Q41" s="13">
+      <c r="S41" s="13">
         <v>1.51396661156926</v>
       </c>
-      <c r="R41" s="6">
-        <v>0</v>
-      </c>
-      <c r="S41" s="6">
-        <v>2</v>
-      </c>
       <c r="T41" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U41" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V41" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="W41" s="6">
+        <v>1</v>
+      </c>
+      <c r="X41" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="15.75" customHeight="1">
       <c r="A42" s="6" t="s">
         <v>72</v>
       </c>
@@ -3539,16 +3916,22 @@
       </c>
       <c r="M42" s="6"/>
       <c r="N42" s="7"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
+      <c r="O42" t="s">
+        <v>161</v>
+      </c>
+      <c r="P42" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="13"/>
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
-    </row>
-    <row r="43" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+    </row>
+    <row r="43" spans="1:24" ht="15.75" customHeight="1">
       <c r="A43" s="6" t="s">
         <v>72</v>
       </c>
@@ -3587,32 +3970,38 @@
         <v>63</v>
       </c>
       <c r="N43" s="7"/>
-      <c r="O43" s="12">
+      <c r="O43" t="s">
+        <v>161</v>
+      </c>
+      <c r="P43" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q43" s="12">
         <v>1796</v>
       </c>
-      <c r="P43" s="12">
+      <c r="R43" s="12">
         <v>1266</v>
       </c>
-      <c r="Q43" s="13">
+      <c r="S43" s="13">
         <v>67.545526203639596</v>
       </c>
-      <c r="R43" s="6">
-        <v>1</v>
-      </c>
-      <c r="S43" s="6">
-        <v>2</v>
-      </c>
       <c r="T43" s="6">
+        <v>1</v>
+      </c>
+      <c r="U43" s="6">
+        <v>2</v>
+      </c>
+      <c r="V43" s="6">
         <v>3</v>
       </c>
-      <c r="U43" s="6">
+      <c r="W43" s="6">
         <v>3</v>
       </c>
-      <c r="V43" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="15.75" customHeight="1">
+      <c r="X43" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="15.75" customHeight="1">
       <c r="A44" s="6" t="s">
         <v>72</v>
       </c>
@@ -3649,16 +4038,22 @@
       </c>
       <c r="M44" s="6"/>
       <c r="N44" s="7"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
+      <c r="O44" t="s">
+        <v>161</v>
+      </c>
+      <c r="P44" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="13"/>
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
-    </row>
-    <row r="45" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+    </row>
+    <row r="45" spans="1:24" ht="15.75" customHeight="1">
       <c r="A45" s="6" t="s">
         <v>72</v>
       </c>
@@ -3697,32 +4092,38 @@
         <v>63</v>
       </c>
       <c r="N45" s="7"/>
-      <c r="O45" s="12">
+      <c r="O45" t="s">
+        <v>161</v>
+      </c>
+      <c r="P45" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q45" s="12">
         <v>3846</v>
       </c>
-      <c r="P45" s="12">
+      <c r="R45" s="12">
         <v>2264</v>
       </c>
-      <c r="Q45" s="13">
+      <c r="S45" s="13">
         <v>2.8517351799247801</v>
       </c>
-      <c r="R45" s="6">
-        <v>0</v>
-      </c>
-      <c r="S45" s="6">
+      <c r="T45" s="6">
+        <v>0</v>
+      </c>
+      <c r="U45" s="6">
         <v>3</v>
       </c>
-      <c r="T45" s="6">
+      <c r="V45" s="6">
         <v>3</v>
       </c>
-      <c r="U45" s="6">
-        <v>2</v>
-      </c>
-      <c r="V45" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W45" s="6">
+        <v>2</v>
+      </c>
+      <c r="X45" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="15.75" customHeight="1">
       <c r="A46" s="6" t="s">
         <v>72</v>
       </c>
@@ -3759,16 +4160,22 @@
       </c>
       <c r="M46" s="6"/>
       <c r="N46" s="7"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
+      <c r="O46" t="s">
+        <v>161</v>
+      </c>
+      <c r="P46" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="13"/>
       <c r="T46" s="6"/>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
-    </row>
-    <row r="47" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+    </row>
+    <row r="47" spans="1:24" ht="15.75" customHeight="1">
       <c r="A47" s="6" t="s">
         <v>72</v>
       </c>
@@ -3807,32 +4214,38 @@
         <v>61</v>
       </c>
       <c r="N47" s="7"/>
-      <c r="O47" s="12">
+      <c r="O47" t="s">
+        <v>161</v>
+      </c>
+      <c r="P47" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q47" s="12">
         <v>1462</v>
       </c>
-      <c r="P47" s="12">
+      <c r="R47" s="12">
         <v>1258</v>
       </c>
-      <c r="Q47" s="13">
+      <c r="S47" s="13">
         <v>1.11875230659168</v>
       </c>
-      <c r="R47" s="6">
-        <v>0</v>
-      </c>
-      <c r="S47" s="6">
-        <v>1</v>
-      </c>
       <c r="T47" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U47" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W47" s="6">
+        <v>0</v>
+      </c>
+      <c r="X47" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="15.75" customHeight="1">
       <c r="A48" s="6" t="s">
         <v>72</v>
       </c>
@@ -3869,16 +4282,22 @@
       </c>
       <c r="M48" s="6"/>
       <c r="N48" s="7"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
+      <c r="O48" t="s">
+        <v>161</v>
+      </c>
+      <c r="P48" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="13"/>
       <c r="T48" s="6"/>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
-    </row>
-    <row r="49" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+    </row>
+    <row r="49" spans="1:24" ht="15.75" customHeight="1">
       <c r="A49" s="6" t="s">
         <v>72</v>
       </c>
@@ -3919,32 +4338,38 @@
       <c r="N49" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="O49" s="12">
+      <c r="O49" t="s">
+        <v>161</v>
+      </c>
+      <c r="P49" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q49" s="12">
         <v>1323</v>
       </c>
-      <c r="P49" s="12">
+      <c r="R49" s="12">
         <v>1200</v>
       </c>
-      <c r="Q49" s="13">
+      <c r="S49" s="13">
         <v>2.7979084017883702</v>
       </c>
-      <c r="R49" s="6">
-        <v>0</v>
-      </c>
-      <c r="S49" s="6">
-        <v>1</v>
-      </c>
       <c r="T49" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U49" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W49" s="6">
+        <v>0</v>
+      </c>
+      <c r="X49" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" ht="15.75" customHeight="1">
       <c r="A50" s="6" t="s">
         <v>72</v>
       </c>
@@ -3983,16 +4408,22 @@
         <v>64</v>
       </c>
       <c r="N50" s="7"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
+      <c r="O50" t="s">
+        <v>161</v>
+      </c>
+      <c r="P50" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="13"/>
       <c r="T50" s="6"/>
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
-    </row>
-    <row r="51" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+    </row>
+    <row r="51" spans="1:24" ht="15.75" customHeight="1">
       <c r="A51" s="6" t="s">
         <v>72</v>
       </c>
@@ -4031,32 +4462,38 @@
         <v>61</v>
       </c>
       <c r="N51" s="7"/>
-      <c r="O51" s="12">
+      <c r="O51" t="s">
+        <v>161</v>
+      </c>
+      <c r="P51" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q51" s="12">
         <v>1584</v>
       </c>
-      <c r="P51" s="12">
+      <c r="R51" s="12">
         <v>1343</v>
       </c>
-      <c r="Q51" s="13">
+      <c r="S51" s="13">
         <v>4.6099719969720798</v>
       </c>
-      <c r="R51" s="6">
-        <v>0</v>
-      </c>
-      <c r="S51" s="6">
-        <v>1</v>
-      </c>
       <c r="T51" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U51" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W51" s="6">
+        <v>0</v>
+      </c>
+      <c r="X51" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" ht="15.75" customHeight="1">
       <c r="A52" s="6" t="s">
         <v>72</v>
       </c>
@@ -4093,16 +4530,22 @@
       </c>
       <c r="M52" s="6"/>
       <c r="N52" s="7"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="13"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
+      <c r="O52" t="s">
+        <v>161</v>
+      </c>
+      <c r="P52" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="13"/>
       <c r="T52" s="6"/>
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
-    </row>
-    <row r="53" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+    </row>
+    <row r="53" spans="1:24" ht="15.75" customHeight="1">
       <c r="A53" s="6" t="s">
         <v>72</v>
       </c>
@@ -4141,32 +4584,38 @@
         <v>63</v>
       </c>
       <c r="N53" s="7"/>
-      <c r="O53" s="12">
+      <c r="O53" t="s">
+        <v>161</v>
+      </c>
+      <c r="P53" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q53" s="12">
         <v>1563</v>
       </c>
-      <c r="P53" s="12">
+      <c r="R53" s="12">
         <v>1266</v>
       </c>
-      <c r="Q53" s="13">
+      <c r="S53" s="13">
         <v>49.504841044761697</v>
       </c>
-      <c r="R53" s="6">
-        <v>0</v>
-      </c>
-      <c r="S53" s="6">
-        <v>1</v>
-      </c>
       <c r="T53" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U53" s="6">
         <v>1</v>
       </c>
       <c r="V53" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" ht="13">
+        <v>1</v>
+      </c>
+      <c r="W53" s="6">
+        <v>1</v>
+      </c>
+      <c r="X53" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" ht="13">
       <c r="A54" s="6" t="s">
         <v>72</v>
       </c>
@@ -4203,16 +4652,22 @@
       </c>
       <c r="M54" s="6"/>
       <c r="N54" s="7"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="13"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
+      <c r="O54" t="s">
+        <v>161</v>
+      </c>
+      <c r="P54" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="13"/>
       <c r="T54" s="6"/>
       <c r="U54" s="6"/>
       <c r="V54" s="6"/>
-    </row>
-    <row r="55" spans="1:22" ht="14">
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+    </row>
+    <row r="55" spans="1:24" ht="14">
       <c r="A55" s="6" t="s">
         <v>72</v>
       </c>
@@ -4255,32 +4710,38 @@
       <c r="N55" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="O55" s="12">
+      <c r="O55" t="s">
+        <v>163</v>
+      </c>
+      <c r="P55" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q55" s="12">
         <v>1845</v>
       </c>
-      <c r="P55" s="12">
+      <c r="R55" s="12">
         <v>1699</v>
       </c>
-      <c r="Q55" s="13">
+      <c r="S55" s="13">
         <v>5.4023198207813996</v>
       </c>
-      <c r="R55" s="6">
-        <v>0</v>
-      </c>
-      <c r="S55" s="6">
-        <v>2</v>
-      </c>
       <c r="T55" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U55" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V55" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" ht="13">
+        <v>2</v>
+      </c>
+      <c r="W55" s="6">
+        <v>1</v>
+      </c>
+      <c r="X55" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" ht="13">
       <c r="A56" s="6" t="s">
         <v>72</v>
       </c>
@@ -4319,16 +4780,22 @@
         <v>64</v>
       </c>
       <c r="N56" s="7"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
+      <c r="O56" t="s">
+        <v>163</v>
+      </c>
+      <c r="P56" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="13"/>
       <c r="T56" s="6"/>
       <c r="U56" s="6"/>
       <c r="V56" s="6"/>
-    </row>
-    <row r="57" spans="1:22" ht="14">
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+    </row>
+    <row r="57" spans="1:24" ht="14">
       <c r="A57" s="6" t="s">
         <v>72</v>
       </c>
@@ -4371,32 +4838,38 @@
       <c r="N57" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="O57" s="12">
+      <c r="O57" t="s">
+        <v>165</v>
+      </c>
+      <c r="P57" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q57" s="12">
         <v>3846</v>
       </c>
-      <c r="P57" s="12">
+      <c r="R57" s="12">
         <v>1208</v>
       </c>
-      <c r="Q57" s="13">
+      <c r="S57" s="13">
         <v>2.8517351799247801</v>
       </c>
-      <c r="R57" s="6">
-        <v>0</v>
-      </c>
-      <c r="S57" s="6">
+      <c r="T57" s="6">
+        <v>0</v>
+      </c>
+      <c r="U57" s="6">
         <v>3</v>
       </c>
-      <c r="T57" s="6">
+      <c r="V57" s="6">
         <v>3</v>
       </c>
-      <c r="U57" s="6">
-        <v>2</v>
-      </c>
-      <c r="V57" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" ht="13">
+      <c r="W57" s="6">
+        <v>2</v>
+      </c>
+      <c r="X57" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" ht="13">
       <c r="A58" s="6" t="s">
         <v>72</v>
       </c>
@@ -4435,16 +4908,22 @@
         <v>64</v>
       </c>
       <c r="N58" s="7"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
+      <c r="O58" t="s">
+        <v>165</v>
+      </c>
+      <c r="P58" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="13"/>
       <c r="T58" s="6"/>
       <c r="U58" s="6"/>
       <c r="V58" s="6"/>
-    </row>
-    <row r="59" spans="1:22" ht="14">
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+    </row>
+    <row r="59" spans="1:24" ht="14">
       <c r="A59" s="6" t="s">
         <v>72</v>
       </c>
@@ -4487,32 +4966,38 @@
       <c r="N59" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="O59" s="12">
+      <c r="O59" t="s">
+        <v>167</v>
+      </c>
+      <c r="P59" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q59" s="12">
         <v>1796</v>
       </c>
-      <c r="P59" s="12">
+      <c r="R59" s="12">
         <v>1635</v>
       </c>
-      <c r="Q59" s="13">
+      <c r="S59" s="13">
         <v>67.545526203639596</v>
       </c>
-      <c r="R59" s="6">
-        <v>1</v>
-      </c>
-      <c r="S59" s="6">
-        <v>2</v>
-      </c>
       <c r="T59" s="6">
+        <v>1</v>
+      </c>
+      <c r="U59" s="6">
+        <v>2</v>
+      </c>
+      <c r="V59" s="6">
         <v>3</v>
       </c>
-      <c r="U59" s="6">
+      <c r="W59" s="6">
         <v>3</v>
       </c>
-      <c r="V59" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" ht="13">
+      <c r="X59" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" ht="13">
       <c r="A60" s="6" t="s">
         <v>72</v>
       </c>
@@ -4551,16 +5036,22 @@
         <v>64</v>
       </c>
       <c r="N60" s="7"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="13"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
+      <c r="O60" t="s">
+        <v>167</v>
+      </c>
+      <c r="P60" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="13"/>
       <c r="T60" s="6"/>
       <c r="U60" s="6"/>
       <c r="V60" s="6"/>
-    </row>
-    <row r="61" spans="1:22" ht="14">
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+    </row>
+    <row r="61" spans="1:24" ht="14">
       <c r="A61" s="6" t="s">
         <v>72</v>
       </c>
@@ -4601,32 +5092,38 @@
       <c r="N61" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="O61" s="12">
+      <c r="O61" t="s">
+        <v>167</v>
+      </c>
+      <c r="P61" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q61" s="12">
         <v>3846</v>
       </c>
-      <c r="P61" s="12">
+      <c r="R61" s="12">
         <v>2633</v>
       </c>
-      <c r="Q61" s="13">
+      <c r="S61" s="13">
         <v>2.8517351799247801</v>
       </c>
-      <c r="R61" s="6">
-        <v>0</v>
-      </c>
-      <c r="S61" s="6">
+      <c r="T61" s="6">
+        <v>0</v>
+      </c>
+      <c r="U61" s="6">
         <v>3</v>
       </c>
-      <c r="T61" s="6">
+      <c r="V61" s="6">
         <v>3</v>
       </c>
-      <c r="U61" s="6">
-        <v>2</v>
-      </c>
-      <c r="V61" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" ht="13">
+      <c r="W61" s="6">
+        <v>2</v>
+      </c>
+      <c r="X61" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" ht="13">
       <c r="A62" s="6" t="s">
         <v>72</v>
       </c>
@@ -4665,16 +5162,22 @@
         <v>64</v>
       </c>
       <c r="N62" s="7"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="13"/>
-      <c r="R62" s="6"/>
-      <c r="S62" s="6"/>
+      <c r="O62" t="s">
+        <v>167</v>
+      </c>
+      <c r="P62" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="13"/>
       <c r="T62" s="6"/>
       <c r="U62" s="6"/>
       <c r="V62" s="6"/>
-    </row>
-    <row r="63" spans="1:22" ht="13">
+      <c r="W62" s="6"/>
+      <c r="X62" s="6"/>
+    </row>
+    <row r="63" spans="1:24" ht="13">
       <c r="A63" s="6" t="s">
         <v>72</v>
       </c>
@@ -4715,32 +5218,38 @@
         <v>61</v>
       </c>
       <c r="N63" s="7"/>
-      <c r="O63" s="12">
+      <c r="O63" t="s">
+        <v>165</v>
+      </c>
+      <c r="P63" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q63" s="12">
         <v>1157</v>
       </c>
-      <c r="P63" s="12">
+      <c r="R63" s="12">
         <v>1038</v>
       </c>
-      <c r="Q63" s="13">
+      <c r="S63" s="13">
         <v>1.51396661156926</v>
       </c>
-      <c r="R63" s="6">
-        <v>0</v>
-      </c>
-      <c r="S63" s="6">
-        <v>2</v>
-      </c>
       <c r="T63" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U63" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V63" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" ht="13">
+        <v>2</v>
+      </c>
+      <c r="W63" s="6">
+        <v>1</v>
+      </c>
+      <c r="X63" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" ht="13">
       <c r="A64" s="6" t="s">
         <v>72</v>
       </c>
@@ -4777,16 +5286,22 @@
       </c>
       <c r="M64" s="6"/>
       <c r="N64" s="7"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="13"/>
-      <c r="R64" s="6"/>
-      <c r="S64" s="6"/>
+      <c r="O64" t="s">
+        <v>165</v>
+      </c>
+      <c r="P64" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="13"/>
       <c r="T64" s="6"/>
       <c r="U64" s="6"/>
       <c r="V64" s="6"/>
-    </row>
-    <row r="65" spans="1:22" ht="13">
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
+    </row>
+    <row r="65" spans="1:24" ht="13">
       <c r="A65" s="6" t="s">
         <v>72</v>
       </c>
@@ -4825,32 +5340,38 @@
         <v>63</v>
       </c>
       <c r="N65" s="7"/>
-      <c r="O65" s="12">
+      <c r="O65" t="s">
+        <v>165</v>
+      </c>
+      <c r="P65" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q65" s="12">
         <v>1796</v>
       </c>
-      <c r="P65" s="12">
+      <c r="R65" s="12">
         <v>1388</v>
       </c>
-      <c r="Q65" s="13">
+      <c r="S65" s="13">
         <v>67.545526203639596</v>
       </c>
-      <c r="R65" s="6">
-        <v>1</v>
-      </c>
-      <c r="S65" s="6">
-        <v>2</v>
-      </c>
       <c r="T65" s="6">
+        <v>1</v>
+      </c>
+      <c r="U65" s="6">
+        <v>2</v>
+      </c>
+      <c r="V65" s="6">
         <v>3</v>
       </c>
-      <c r="U65" s="6">
+      <c r="W65" s="6">
         <v>3</v>
       </c>
-      <c r="V65" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" ht="13">
+      <c r="X65" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" ht="13">
       <c r="A66" s="6" t="s">
         <v>72</v>
       </c>
@@ -4887,16 +5408,22 @@
       </c>
       <c r="M66" s="6"/>
       <c r="N66" s="7"/>
-      <c r="O66" s="12"/>
-      <c r="P66" s="12"/>
-      <c r="Q66" s="13"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
+      <c r="O66" t="s">
+        <v>165</v>
+      </c>
+      <c r="P66" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="13"/>
       <c r="T66" s="6"/>
       <c r="U66" s="6"/>
       <c r="V66" s="6"/>
-    </row>
-    <row r="67" spans="1:22" ht="13">
+      <c r="W66" s="6"/>
+      <c r="X66" s="6"/>
+    </row>
+    <row r="67" spans="1:24" ht="13">
       <c r="A67" s="6" t="s">
         <v>72</v>
       </c>
@@ -4935,32 +5462,38 @@
         <v>63</v>
       </c>
       <c r="N67" s="7"/>
-      <c r="O67" s="12">
+      <c r="O67" t="s">
+        <v>165</v>
+      </c>
+      <c r="P67" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q67" s="12">
         <v>3846</v>
       </c>
-      <c r="P67" s="12">
+      <c r="R67" s="12">
         <v>2386</v>
       </c>
-      <c r="Q67" s="13">
+      <c r="S67" s="13">
         <v>2.8517351799247801</v>
       </c>
-      <c r="R67" s="6">
-        <v>0</v>
-      </c>
-      <c r="S67" s="6">
+      <c r="T67" s="6">
+        <v>0</v>
+      </c>
+      <c r="U67" s="6">
         <v>3</v>
       </c>
-      <c r="T67" s="6">
+      <c r="V67" s="6">
         <v>3</v>
       </c>
-      <c r="U67" s="6">
-        <v>2</v>
-      </c>
-      <c r="V67" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" ht="13">
+      <c r="W67" s="6">
+        <v>2</v>
+      </c>
+      <c r="X67" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" ht="13">
       <c r="A68" s="6" t="s">
         <v>72</v>
       </c>
@@ -4997,16 +5530,22 @@
       </c>
       <c r="M68" s="6"/>
       <c r="N68" s="7"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="13"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="6"/>
+      <c r="O68" t="s">
+        <v>165</v>
+      </c>
+      <c r="P68" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="13"/>
       <c r="T68" s="6"/>
       <c r="U68" s="6"/>
       <c r="V68" s="6"/>
-    </row>
-    <row r="69" spans="1:22" ht="13">
+      <c r="W68" s="6"/>
+      <c r="X68" s="6"/>
+    </row>
+    <row r="69" spans="1:24" ht="13">
       <c r="A69" s="6" t="s">
         <v>72</v>
       </c>
@@ -5044,35 +5583,41 @@
       <c r="M69" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="N69" s="16" t="s">
+      <c r="N69" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="O69" s="12">
+      <c r="O69" t="s">
+        <v>165</v>
+      </c>
+      <c r="P69" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q69" s="12">
         <v>1462</v>
       </c>
-      <c r="P69" s="12">
+      <c r="R69" s="12">
         <v>1346</v>
       </c>
-      <c r="Q69" s="13">
+      <c r="S69" s="13">
         <v>1.11875230659168</v>
       </c>
-      <c r="R69" s="6">
-        <v>0</v>
-      </c>
-      <c r="S69" s="6">
-        <v>1</v>
-      </c>
       <c r="T69" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U69" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V69" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:22" ht="13">
+      <c r="W69" s="6">
+        <v>0</v>
+      </c>
+      <c r="X69" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" ht="13">
       <c r="A70" s="6" t="s">
         <v>72</v>
       </c>
@@ -5111,16 +5656,22 @@
         <v>64</v>
       </c>
       <c r="N70" s="17"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
-      <c r="Q70" s="13"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
+      <c r="O70" t="s">
+        <v>165</v>
+      </c>
+      <c r="P70" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="13"/>
       <c r="T70" s="6"/>
       <c r="U70" s="6"/>
       <c r="V70" s="6"/>
-    </row>
-    <row r="71" spans="1:22" ht="14">
+      <c r="W70" s="6"/>
+      <c r="X70" s="6"/>
+    </row>
+    <row r="71" spans="1:24" ht="14">
       <c r="A71" s="6" t="s">
         <v>72</v>
       </c>
@@ -5161,32 +5712,38 @@
       <c r="N71" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="O71" s="12">
+      <c r="O71" t="s">
+        <v>165</v>
+      </c>
+      <c r="P71" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q71" s="12">
         <v>1584</v>
       </c>
-      <c r="P71" s="12">
+      <c r="R71" s="12">
         <v>1465</v>
       </c>
-      <c r="Q71" s="13">
+      <c r="S71" s="13">
         <v>4.6099719969720798</v>
       </c>
-      <c r="R71" s="6">
-        <v>0</v>
-      </c>
-      <c r="S71" s="6">
-        <v>1</v>
-      </c>
       <c r="T71" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U71" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V71" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:22" ht="13">
+      <c r="W71" s="6">
+        <v>0</v>
+      </c>
+      <c r="X71" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" ht="13">
       <c r="A72" s="6" t="s">
         <v>72</v>
       </c>
@@ -5225,16 +5782,22 @@
         <v>64</v>
       </c>
       <c r="N72" s="7"/>
-      <c r="O72" s="12"/>
-      <c r="P72" s="12"/>
-      <c r="Q72" s="13"/>
-      <c r="R72" s="6"/>
-      <c r="S72" s="6"/>
+      <c r="O72" t="s">
+        <v>165</v>
+      </c>
+      <c r="P72" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="13"/>
       <c r="T72" s="6"/>
       <c r="U72" s="6"/>
       <c r="V72" s="6"/>
-    </row>
-    <row r="73" spans="1:22" ht="13">
+      <c r="W72" s="6"/>
+      <c r="X72" s="6"/>
+    </row>
+    <row r="73" spans="1:24" ht="13">
       <c r="A73" s="6" t="s">
         <v>72</v>
       </c>
@@ -5273,32 +5836,38 @@
         <v>63</v>
       </c>
       <c r="N73" s="7"/>
-      <c r="O73" s="12">
+      <c r="O73" t="s">
+        <v>165</v>
+      </c>
+      <c r="P73" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q73" s="12">
         <v>1563</v>
       </c>
-      <c r="P73" s="12">
+      <c r="R73" s="12">
         <v>1388</v>
       </c>
-      <c r="Q73" s="13">
+      <c r="S73" s="13">
         <v>49.504841044761697</v>
       </c>
-      <c r="R73" s="6">
-        <v>0</v>
-      </c>
-      <c r="S73" s="6">
-        <v>1</v>
-      </c>
       <c r="T73" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U73" s="6">
         <v>1</v>
       </c>
       <c r="V73" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" ht="13">
+        <v>1</v>
+      </c>
+      <c r="W73" s="6">
+        <v>1</v>
+      </c>
+      <c r="X73" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" ht="13">
       <c r="A74" s="6" t="s">
         <v>72</v>
       </c>
@@ -5335,16 +5904,22 @@
       </c>
       <c r="M74" s="6"/>
       <c r="N74" s="7"/>
-      <c r="O74" s="12"/>
-      <c r="P74" s="12"/>
-      <c r="Q74" s="13"/>
-      <c r="R74" s="6"/>
-      <c r="S74" s="6"/>
+      <c r="O74" t="s">
+        <v>165</v>
+      </c>
+      <c r="P74" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="13"/>
       <c r="T74" s="6"/>
       <c r="U74" s="6"/>
       <c r="V74" s="6"/>
-    </row>
-    <row r="75" spans="1:22" ht="13">
+      <c r="W74" s="6"/>
+      <c r="X74" s="6"/>
+    </row>
+    <row r="75" spans="1:24" ht="13">
       <c r="A75" s="6" t="s">
         <v>108</v>
       </c>
@@ -5385,32 +5960,38 @@
         <v>63</v>
       </c>
       <c r="N75" s="7"/>
-      <c r="O75" s="12">
+      <c r="O75" t="s">
+        <v>169</v>
+      </c>
+      <c r="P75" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q75" s="12">
         <v>670</v>
       </c>
-      <c r="P75" s="12">
+      <c r="R75" s="12">
         <v>335</v>
       </c>
-      <c r="Q75" s="13">
+      <c r="S75" s="13">
         <v>0.84203791621975599</v>
       </c>
-      <c r="R75" s="6">
-        <v>0</v>
-      </c>
-      <c r="S75" s="6">
-        <v>2</v>
-      </c>
       <c r="T75" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U75" s="6">
         <v>2</v>
       </c>
       <c r="V75" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" ht="13">
+        <v>2</v>
+      </c>
+      <c r="W75" s="6">
+        <v>2</v>
+      </c>
+      <c r="X75" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" ht="13">
       <c r="A76" s="6" t="s">
         <v>108</v>
       </c>
@@ -5447,16 +6028,22 @@
       </c>
       <c r="M76" s="6"/>
       <c r="N76" s="7"/>
-      <c r="O76" s="12"/>
-      <c r="P76" s="12"/>
-      <c r="Q76" s="13"/>
-      <c r="R76" s="6"/>
-      <c r="S76" s="6"/>
+      <c r="O76" t="s">
+        <v>169</v>
+      </c>
+      <c r="P76" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="12"/>
+      <c r="S76" s="13"/>
       <c r="T76" s="6"/>
       <c r="U76" s="6"/>
       <c r="V76" s="6"/>
-    </row>
-    <row r="77" spans="1:22" ht="13">
+      <c r="W76" s="6"/>
+      <c r="X76" s="6"/>
+    </row>
+    <row r="77" spans="1:24" ht="13">
       <c r="A77" s="6" t="s">
         <v>111</v>
       </c>
@@ -5497,32 +6084,38 @@
         <v>63</v>
       </c>
       <c r="N77" s="7"/>
-      <c r="O77" s="12">
+      <c r="O77" t="s">
+        <v>171</v>
+      </c>
+      <c r="P77" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q77" s="12">
         <v>3191</v>
       </c>
-      <c r="P77" s="12">
+      <c r="R77" s="12">
         <v>611</v>
       </c>
-      <c r="Q77" s="13">
+      <c r="S77" s="13">
         <v>2.8196932116110198</v>
       </c>
-      <c r="R77" s="6">
-        <v>1</v>
-      </c>
-      <c r="S77" s="6">
-        <v>2</v>
-      </c>
       <c r="T77" s="6">
+        <v>1</v>
+      </c>
+      <c r="U77" s="6">
+        <v>2</v>
+      </c>
+      <c r="V77" s="6">
         <v>3</v>
       </c>
-      <c r="U77" s="6">
-        <v>2</v>
-      </c>
-      <c r="V77" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" ht="13">
+      <c r="W77" s="6">
+        <v>2</v>
+      </c>
+      <c r="X77" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" ht="13">
       <c r="A78" s="6" t="s">
         <v>111</v>
       </c>
@@ -5559,16 +6152,22 @@
       </c>
       <c r="M78" s="6"/>
       <c r="N78" s="7"/>
-      <c r="O78" s="12"/>
-      <c r="P78" s="12"/>
-      <c r="Q78" s="13"/>
-      <c r="R78" s="6"/>
-      <c r="S78" s="6"/>
+      <c r="O78" t="s">
+        <v>171</v>
+      </c>
+      <c r="P78" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="12"/>
+      <c r="S78" s="13"/>
       <c r="T78" s="6"/>
       <c r="U78" s="6"/>
       <c r="V78" s="6"/>
-    </row>
-    <row r="79" spans="1:22" ht="13">
+      <c r="W78" s="6"/>
+      <c r="X78" s="6"/>
+    </row>
+    <row r="79" spans="1:24" ht="13">
       <c r="A79" s="6" t="s">
         <v>111</v>
       </c>
@@ -5607,32 +6206,38 @@
         <v>63</v>
       </c>
       <c r="N79" s="7"/>
-      <c r="O79" s="12">
+      <c r="O79" t="s">
+        <v>171</v>
+      </c>
+      <c r="P79" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q79" s="12">
         <v>7336</v>
       </c>
-      <c r="P79" s="12">
+      <c r="R79" s="12">
         <v>2415</v>
       </c>
-      <c r="Q79" s="13">
+      <c r="S79" s="13">
         <v>2.4351895918458801</v>
       </c>
-      <c r="R79" s="6">
-        <v>0</v>
-      </c>
-      <c r="S79" s="6">
-        <v>1</v>
-      </c>
       <c r="T79" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U79" s="6">
         <v>1</v>
       </c>
       <c r="V79" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" ht="13">
+        <v>1</v>
+      </c>
+      <c r="W79" s="6">
+        <v>1</v>
+      </c>
+      <c r="X79" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" ht="13">
       <c r="A80" s="6" t="s">
         <v>111</v>
       </c>
@@ -5669,16 +6274,22 @@
       </c>
       <c r="M80" s="6"/>
       <c r="N80" s="7"/>
-      <c r="O80" s="12"/>
-      <c r="P80" s="12"/>
-      <c r="Q80" s="13"/>
-      <c r="R80" s="6"/>
-      <c r="S80" s="6"/>
+      <c r="O80" t="s">
+        <v>171</v>
+      </c>
+      <c r="P80" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="12"/>
+      <c r="S80" s="13"/>
       <c r="T80" s="6"/>
       <c r="U80" s="6"/>
       <c r="V80" s="6"/>
-    </row>
-    <row r="81" spans="1:22" ht="13">
+      <c r="W80" s="6"/>
+      <c r="X80" s="6"/>
+    </row>
+    <row r="81" spans="1:24" ht="13">
       <c r="A81" s="6" t="s">
         <v>111</v>
       </c>
@@ -5717,32 +6328,38 @@
         <v>63</v>
       </c>
       <c r="N81" s="7"/>
-      <c r="O81" s="12">
+      <c r="O81" t="s">
+        <v>171</v>
+      </c>
+      <c r="P81" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q81" s="12">
         <v>3955</v>
       </c>
-      <c r="P81" s="12">
+      <c r="R81" s="12">
         <v>611</v>
       </c>
-      <c r="Q81" s="13">
+      <c r="S81" s="13">
         <v>2.5445590758830301</v>
       </c>
-      <c r="R81" s="6">
-        <v>1</v>
-      </c>
-      <c r="S81" s="6">
-        <v>1</v>
-      </c>
       <c r="T81" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U81" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V81" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" ht="13">
+        <v>2</v>
+      </c>
+      <c r="W81" s="6">
+        <v>2</v>
+      </c>
+      <c r="X81" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" ht="13">
       <c r="A82" s="6" t="s">
         <v>111</v>
       </c>
@@ -5779,16 +6396,22 @@
       </c>
       <c r="M82" s="6"/>
       <c r="N82" s="7"/>
-      <c r="O82" s="12"/>
-      <c r="P82" s="12"/>
-      <c r="Q82" s="13"/>
-      <c r="R82" s="6"/>
-      <c r="S82" s="6"/>
+      <c r="O82" t="s">
+        <v>171</v>
+      </c>
+      <c r="P82" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="12"/>
+      <c r="S82" s="13"/>
       <c r="T82" s="6"/>
       <c r="U82" s="6"/>
       <c r="V82" s="6"/>
-    </row>
-    <row r="83" spans="1:22" ht="13">
+      <c r="W82" s="6"/>
+      <c r="X82" s="6"/>
+    </row>
+    <row r="83" spans="1:24" ht="13">
       <c r="A83" s="6" t="s">
         <v>111</v>
       </c>
@@ -5829,32 +6452,38 @@
         <v>63</v>
       </c>
       <c r="N83" s="7"/>
-      <c r="O83" s="12">
+      <c r="O83" t="s">
+        <v>171</v>
+      </c>
+      <c r="P83" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q83" s="12">
         <v>7336</v>
       </c>
-      <c r="P83" s="12">
+      <c r="R83" s="12">
         <v>1379</v>
       </c>
-      <c r="Q83" s="13">
+      <c r="S83" s="13">
         <v>2.4351895918458801</v>
       </c>
-      <c r="R83" s="6">
-        <v>0</v>
-      </c>
-      <c r="S83" s="6">
-        <v>1</v>
-      </c>
       <c r="T83" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U83" s="6">
         <v>1</v>
       </c>
       <c r="V83" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" ht="13">
+        <v>1</v>
+      </c>
+      <c r="W83" s="6">
+        <v>1</v>
+      </c>
+      <c r="X83" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" ht="13">
       <c r="A84" s="6" t="s">
         <v>111</v>
       </c>
@@ -5891,16 +6520,22 @@
       </c>
       <c r="M84" s="6"/>
       <c r="N84" s="7"/>
-      <c r="O84" s="12"/>
-      <c r="P84" s="12"/>
-      <c r="Q84" s="13"/>
-      <c r="R84" s="6"/>
-      <c r="S84" s="6"/>
+      <c r="O84" t="s">
+        <v>171</v>
+      </c>
+      <c r="P84" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12"/>
+      <c r="S84" s="13"/>
       <c r="T84" s="6"/>
       <c r="U84" s="6"/>
       <c r="V84" s="6"/>
-    </row>
-    <row r="85" spans="1:22" ht="13">
+      <c r="W84" s="6"/>
+      <c r="X84" s="6"/>
+    </row>
+    <row r="85" spans="1:24" ht="13">
       <c r="A85" s="6" t="s">
         <v>111</v>
       </c>
@@ -5941,32 +6576,38 @@
         <v>63</v>
       </c>
       <c r="N85" s="7"/>
-      <c r="O85" s="12">
+      <c r="O85" t="s">
+        <v>174</v>
+      </c>
+      <c r="P85" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q85" s="12">
         <v>1582</v>
       </c>
-      <c r="P85" s="12">
+      <c r="R85" s="12">
         <v>529</v>
       </c>
-      <c r="Q85" s="13">
+      <c r="S85" s="13">
         <v>3.11349032753263</v>
       </c>
-      <c r="R85" s="6">
-        <v>1</v>
-      </c>
-      <c r="S85" s="6">
-        <v>0</v>
-      </c>
       <c r="T85" s="6">
         <v>1</v>
       </c>
       <c r="U85" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V85" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" ht="13">
+        <v>1</v>
+      </c>
+      <c r="W85" s="6">
+        <v>1</v>
+      </c>
+      <c r="X85" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" ht="13">
       <c r="A86" s="6" t="s">
         <v>111</v>
       </c>
@@ -6003,16 +6644,22 @@
       </c>
       <c r="M86" s="6"/>
       <c r="N86" s="7"/>
-      <c r="O86" s="12"/>
-      <c r="P86" s="12"/>
-      <c r="Q86" s="13"/>
-      <c r="R86" s="6"/>
-      <c r="S86" s="6"/>
+      <c r="O86" t="s">
+        <v>174</v>
+      </c>
+      <c r="P86" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="12"/>
+      <c r="S86" s="13"/>
       <c r="T86" s="6"/>
       <c r="U86" s="6"/>
       <c r="V86" s="6"/>
-    </row>
-    <row r="87" spans="1:22" ht="13">
+      <c r="W86" s="6"/>
+      <c r="X86" s="6"/>
+    </row>
+    <row r="87" spans="1:24" ht="13">
       <c r="A87" s="6" t="s">
         <v>122</v>
       </c>
@@ -6053,32 +6700,38 @@
         <v>63</v>
       </c>
       <c r="N87" s="7"/>
-      <c r="O87" s="12">
+      <c r="O87" t="s">
+        <v>175</v>
+      </c>
+      <c r="P87" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q87" s="12">
         <v>1670</v>
       </c>
-      <c r="P87" s="12">
+      <c r="R87" s="12">
         <v>318</v>
       </c>
-      <c r="Q87" s="13">
+      <c r="S87" s="13">
         <v>4.4265897940278798</v>
       </c>
-      <c r="R87" s="6">
-        <v>0</v>
-      </c>
-      <c r="S87" s="6">
-        <v>2</v>
-      </c>
       <c r="T87" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U87" s="6">
         <v>2</v>
       </c>
       <c r="V87" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22" ht="13">
+        <v>2</v>
+      </c>
+      <c r="W87" s="6">
+        <v>2</v>
+      </c>
+      <c r="X87" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" ht="13">
       <c r="A88" s="6" t="s">
         <v>122</v>
       </c>
@@ -6115,16 +6768,22 @@
       </c>
       <c r="M88" s="6"/>
       <c r="N88" s="7"/>
-      <c r="O88" s="12"/>
-      <c r="P88" s="12"/>
-      <c r="Q88" s="13"/>
-      <c r="R88" s="6"/>
-      <c r="S88" s="6"/>
+      <c r="O88" t="s">
+        <v>175</v>
+      </c>
+      <c r="P88" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="12"/>
+      <c r="S88" s="13"/>
       <c r="T88" s="6"/>
       <c r="U88" s="6"/>
       <c r="V88" s="6"/>
-    </row>
-    <row r="89" spans="1:22" ht="13">
+      <c r="W88" s="6"/>
+      <c r="X88" s="6"/>
+    </row>
+    <row r="89" spans="1:24" ht="13">
       <c r="A89" s="6" t="s">
         <v>125</v>
       </c>
@@ -6165,32 +6824,38 @@
         <v>63</v>
       </c>
       <c r="N89" s="7"/>
-      <c r="O89" s="12">
+      <c r="O89" t="s">
+        <v>177</v>
+      </c>
+      <c r="P89" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q89" s="12">
         <v>1476</v>
       </c>
-      <c r="P89" s="12">
+      <c r="R89" s="12">
         <v>536</v>
       </c>
-      <c r="Q89" s="13">
+      <c r="S89" s="13">
         <v>1.07168934495893</v>
       </c>
-      <c r="R89" s="6">
-        <v>1</v>
-      </c>
-      <c r="S89" s="6">
-        <v>3</v>
-      </c>
       <c r="T89" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U89" s="6">
         <v>3</v>
       </c>
       <c r="V89" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22" ht="13">
+        <v>4</v>
+      </c>
+      <c r="W89" s="6">
+        <v>3</v>
+      </c>
+      <c r="X89" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" ht="13">
       <c r="A90" s="6" t="s">
         <v>125</v>
       </c>
@@ -6227,16 +6892,22 @@
       </c>
       <c r="M90" s="6"/>
       <c r="N90" s="7"/>
-      <c r="O90" s="12"/>
-      <c r="P90" s="12"/>
-      <c r="Q90" s="13"/>
-      <c r="R90" s="6"/>
-      <c r="S90" s="6"/>
+      <c r="O90" t="s">
+        <v>177</v>
+      </c>
+      <c r="P90" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q90" s="12"/>
+      <c r="R90" s="12"/>
+      <c r="S90" s="13"/>
       <c r="T90" s="6"/>
       <c r="U90" s="6"/>
       <c r="V90" s="6"/>
-    </row>
-    <row r="91" spans="1:22" ht="14">
+      <c r="W90" s="6"/>
+      <c r="X90" s="6"/>
+    </row>
+    <row r="91" spans="1:24" ht="14">
       <c r="A91" s="6" t="s">
         <v>125</v>
       </c>
@@ -6279,32 +6950,38 @@
       <c r="N91" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="O91" s="12">
+      <c r="O91" t="s">
+        <v>179</v>
+      </c>
+      <c r="P91" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q91" s="12">
         <v>1476</v>
       </c>
-      <c r="P91" s="12">
+      <c r="R91" s="12">
         <v>223</v>
       </c>
-      <c r="Q91" s="13">
+      <c r="S91" s="13">
         <v>1.07168934495893</v>
       </c>
-      <c r="R91" s="6">
-        <v>1</v>
-      </c>
-      <c r="S91" s="6">
-        <v>3</v>
-      </c>
       <c r="T91" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U91" s="6">
         <v>3</v>
       </c>
       <c r="V91" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22" ht="13">
+        <v>4</v>
+      </c>
+      <c r="W91" s="6">
+        <v>3</v>
+      </c>
+      <c r="X91" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" ht="13">
       <c r="A92" s="6" t="s">
         <v>125</v>
       </c>
@@ -6343,16 +7020,22 @@
         <v>64</v>
       </c>
       <c r="N92" s="7"/>
-      <c r="O92" s="12"/>
-      <c r="P92" s="12"/>
-      <c r="Q92" s="13"/>
-      <c r="R92" s="6"/>
-      <c r="S92" s="6"/>
+      <c r="O92" t="s">
+        <v>179</v>
+      </c>
+      <c r="P92" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q92" s="12"/>
+      <c r="R92" s="12"/>
+      <c r="S92" s="13"/>
       <c r="T92" s="6"/>
       <c r="U92" s="6"/>
       <c r="V92" s="6"/>
-    </row>
-    <row r="93" spans="1:22" ht="14">
+      <c r="W92" s="6"/>
+      <c r="X92" s="6"/>
+    </row>
+    <row r="93" spans="1:24" ht="14">
       <c r="A93" s="6" t="s">
         <v>125</v>
       </c>
@@ -6395,32 +7078,38 @@
       <c r="N93" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="O93" s="12">
+      <c r="O93" t="s">
+        <v>181</v>
+      </c>
+      <c r="P93" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q93" s="12">
         <v>1476</v>
       </c>
-      <c r="P93" s="12">
+      <c r="R93" s="12">
         <v>637</v>
       </c>
-      <c r="Q93" s="13">
+      <c r="S93" s="13">
         <v>1.07168934495893</v>
       </c>
-      <c r="R93" s="6">
-        <v>1</v>
-      </c>
-      <c r="S93" s="6">
-        <v>3</v>
-      </c>
       <c r="T93" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U93" s="6">
         <v>3</v>
       </c>
       <c r="V93" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" ht="13">
+        <v>4</v>
+      </c>
+      <c r="W93" s="6">
+        <v>3</v>
+      </c>
+      <c r="X93" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" ht="13">
       <c r="A94" s="6" t="s">
         <v>125</v>
       </c>
@@ -6459,16 +7148,22 @@
         <v>64</v>
       </c>
       <c r="N94" s="7"/>
-      <c r="O94" s="12"/>
-      <c r="P94" s="12"/>
-      <c r="Q94" s="13"/>
-      <c r="R94" s="6"/>
-      <c r="S94" s="6"/>
+      <c r="O94" t="s">
+        <v>181</v>
+      </c>
+      <c r="P94" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="12"/>
+      <c r="S94" s="13"/>
       <c r="T94" s="6"/>
       <c r="U94" s="6"/>
       <c r="V94" s="6"/>
-    </row>
-    <row r="95" spans="1:22" ht="13">
+      <c r="W94" s="6"/>
+      <c r="X94" s="6"/>
+    </row>
+    <row r="95" spans="1:24" ht="13">
       <c r="A95" s="6" t="s">
         <v>133</v>
       </c>
@@ -6509,32 +7204,38 @@
         <v>63</v>
       </c>
       <c r="N95" s="7"/>
-      <c r="O95" s="12">
+      <c r="O95" t="s">
+        <v>182</v>
+      </c>
+      <c r="P95" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q95" s="12">
         <v>3079</v>
       </c>
-      <c r="P95" s="12">
+      <c r="R95" s="12">
         <v>1295</v>
       </c>
-      <c r="Q95" s="13">
+      <c r="S95" s="13">
         <v>12.175947959229401</v>
       </c>
-      <c r="R95" s="6">
-        <v>0</v>
-      </c>
-      <c r="S95" s="6">
-        <v>1</v>
-      </c>
       <c r="T95" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U95" s="6">
         <v>1</v>
       </c>
       <c r="V95" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22" ht="13">
+        <v>1</v>
+      </c>
+      <c r="W95" s="6">
+        <v>1</v>
+      </c>
+      <c r="X95" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" ht="13">
       <c r="A96" s="6" t="s">
         <v>133</v>
       </c>
@@ -6571,16 +7272,22 @@
       </c>
       <c r="M96" s="6"/>
       <c r="N96" s="7"/>
-      <c r="O96" s="12"/>
-      <c r="P96" s="12"/>
-      <c r="Q96" s="13"/>
-      <c r="R96" s="6"/>
-      <c r="S96" s="6"/>
+      <c r="O96" t="s">
+        <v>182</v>
+      </c>
+      <c r="P96" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="12"/>
+      <c r="S96" s="13"/>
       <c r="T96" s="6"/>
       <c r="U96" s="6"/>
       <c r="V96" s="6"/>
-    </row>
-    <row r="97" spans="1:22" ht="14">
+      <c r="W96" s="6"/>
+      <c r="X96" s="6"/>
+    </row>
+    <row r="97" spans="1:24" ht="14">
       <c r="A97" s="6" t="s">
         <v>133</v>
       </c>
@@ -6623,32 +7330,38 @@
       <c r="N97" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="O97" s="12">
+      <c r="O97" t="s">
+        <v>184</v>
+      </c>
+      <c r="P97" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q97" s="12">
         <v>2516</v>
       </c>
-      <c r="P97" s="12">
+      <c r="R97" s="12">
         <v>756</v>
       </c>
-      <c r="Q97" s="13">
+      <c r="S97" s="13">
         <v>20.9668203039876</v>
       </c>
-      <c r="R97" s="6">
-        <v>0</v>
-      </c>
-      <c r="S97" s="6">
-        <v>2</v>
-      </c>
       <c r="T97" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U97" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V97" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:22" ht="13">
+        <v>2</v>
+      </c>
+      <c r="W97" s="6">
+        <v>1</v>
+      </c>
+      <c r="X97" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" ht="13">
       <c r="A98" s="6" t="s">
         <v>133</v>
       </c>
@@ -6687,16 +7400,22 @@
         <v>64</v>
       </c>
       <c r="N98" s="7"/>
-      <c r="O98" s="12"/>
-      <c r="P98" s="12"/>
-      <c r="Q98" s="13"/>
-      <c r="R98" s="6"/>
-      <c r="S98" s="6"/>
+      <c r="O98" t="s">
+        <v>184</v>
+      </c>
+      <c r="P98" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q98" s="12"/>
+      <c r="R98" s="12"/>
+      <c r="S98" s="13"/>
       <c r="T98" s="6"/>
       <c r="U98" s="6"/>
       <c r="V98" s="6"/>
-    </row>
-    <row r="99" spans="1:22" ht="14">
+      <c r="W98" s="6"/>
+      <c r="X98" s="6"/>
+    </row>
+    <row r="99" spans="1:24" ht="14">
       <c r="A99" s="6" t="s">
         <v>133</v>
       </c>
@@ -6737,32 +7456,38 @@
       <c r="N99" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="O99" s="12">
+      <c r="O99" t="s">
+        <v>184</v>
+      </c>
+      <c r="P99" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q99" s="12">
         <v>2727</v>
       </c>
-      <c r="P99" s="12">
+      <c r="R99" s="12">
         <v>818</v>
       </c>
-      <c r="Q99" s="13">
+      <c r="S99" s="13">
         <v>11.0718542530905</v>
       </c>
-      <c r="R99" s="6">
-        <v>0</v>
-      </c>
-      <c r="S99" s="6">
-        <v>2</v>
-      </c>
       <c r="T99" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U99" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V99" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:22" ht="13">
+        <v>2</v>
+      </c>
+      <c r="W99" s="6">
+        <v>1</v>
+      </c>
+      <c r="X99" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" ht="13">
       <c r="A100" s="6" t="s">
         <v>133</v>
       </c>
@@ -6801,16 +7526,22 @@
         <v>64</v>
       </c>
       <c r="N100" s="7"/>
-      <c r="O100" s="12"/>
-      <c r="P100" s="12"/>
-      <c r="Q100" s="13"/>
-      <c r="R100" s="6"/>
-      <c r="S100" s="6"/>
+      <c r="O100" t="s">
+        <v>184</v>
+      </c>
+      <c r="P100" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="12"/>
+      <c r="S100" s="13"/>
       <c r="T100" s="6"/>
       <c r="U100" s="6"/>
       <c r="V100" s="6"/>
-    </row>
-    <row r="101" spans="1:22" ht="13">
+      <c r="W100" s="6"/>
+      <c r="X100" s="6"/>
+    </row>
+    <row r="101" spans="1:24" ht="13">
       <c r="A101" s="6" t="s">
         <v>133</v>
       </c>
@@ -6849,32 +7580,38 @@
         <v>63</v>
       </c>
       <c r="N101" s="7"/>
-      <c r="O101" s="12">
+      <c r="O101" t="s">
+        <v>184</v>
+      </c>
+      <c r="P101" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q101" s="12">
         <v>2847</v>
       </c>
-      <c r="P101" s="12">
+      <c r="R101" s="12">
         <v>871</v>
       </c>
-      <c r="Q101" s="13">
+      <c r="S101" s="13">
         <v>11.296362472309299</v>
       </c>
-      <c r="R101" s="6">
-        <v>0</v>
-      </c>
-      <c r="S101" s="6">
-        <v>2</v>
-      </c>
       <c r="T101" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U101" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V101" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:22" ht="13">
+        <v>2</v>
+      </c>
+      <c r="W101" s="6">
+        <v>1</v>
+      </c>
+      <c r="X101" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" ht="13">
       <c r="A102" s="6" t="s">
         <v>133</v>
       </c>
@@ -6911,16 +7648,22 @@
       </c>
       <c r="M102" s="6"/>
       <c r="N102" s="7"/>
-      <c r="O102" s="12"/>
-      <c r="P102" s="12"/>
-      <c r="Q102" s="13"/>
-      <c r="R102" s="6"/>
-      <c r="S102" s="6"/>
+      <c r="O102" t="s">
+        <v>184</v>
+      </c>
+      <c r="P102" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q102" s="12"/>
+      <c r="R102" s="12"/>
+      <c r="S102" s="13"/>
       <c r="T102" s="6"/>
       <c r="U102" s="6"/>
       <c r="V102" s="6"/>
-    </row>
-    <row r="103" spans="1:22" ht="13">
+      <c r="W102" s="6"/>
+      <c r="X102" s="6"/>
+    </row>
+    <row r="103" spans="1:24" ht="13">
       <c r="A103" s="6" t="s">
         <v>144</v>
       </c>
@@ -6961,32 +7704,38 @@
         <v>63</v>
       </c>
       <c r="N103" s="7"/>
-      <c r="O103" s="12">
+      <c r="O103" t="s">
+        <v>186</v>
+      </c>
+      <c r="P103" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q103" s="12">
         <v>3616</v>
       </c>
-      <c r="P103" s="12">
+      <c r="R103" s="12">
         <v>1107</v>
       </c>
-      <c r="Q103" s="13">
+      <c r="S103" s="13">
         <v>4.4952609741840899</v>
       </c>
-      <c r="R103" s="6">
-        <v>0</v>
-      </c>
-      <c r="S103" s="6">
-        <v>2</v>
-      </c>
       <c r="T103" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U103" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V103" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:22" ht="13">
+        <v>2</v>
+      </c>
+      <c r="W103" s="6">
+        <v>1</v>
+      </c>
+      <c r="X103" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" ht="13">
       <c r="A104" s="6" t="s">
         <v>144</v>
       </c>
@@ -7023,16 +7772,22 @@
       </c>
       <c r="M104" s="6"/>
       <c r="N104" s="7"/>
-      <c r="O104" s="12"/>
-      <c r="P104" s="12"/>
-      <c r="Q104" s="13"/>
-      <c r="R104" s="6"/>
-      <c r="S104" s="6"/>
+      <c r="O104" t="s">
+        <v>186</v>
+      </c>
+      <c r="P104" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q104" s="12"/>
+      <c r="R104" s="12"/>
+      <c r="S104" s="13"/>
       <c r="T104" s="6"/>
       <c r="U104" s="6"/>
       <c r="V104" s="6"/>
-    </row>
-    <row r="105" spans="1:22" ht="13">
+      <c r="W104" s="6"/>
+      <c r="X104" s="6"/>
+    </row>
+    <row r="105" spans="1:24" ht="13">
       <c r="A105" s="6" t="s">
         <v>144</v>
       </c>
@@ -7071,32 +7826,38 @@
         <v>63</v>
       </c>
       <c r="N105" s="7"/>
-      <c r="O105" s="12">
+      <c r="O105" t="s">
+        <v>186</v>
+      </c>
+      <c r="P105" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q105" s="12">
         <v>3987</v>
       </c>
-      <c r="P105" s="12">
+      <c r="R105" s="12">
         <v>1760</v>
       </c>
-      <c r="Q105" s="13">
+      <c r="S105" s="13">
         <v>5.7381383524692398</v>
       </c>
-      <c r="R105" s="6">
-        <v>0</v>
-      </c>
-      <c r="S105" s="6">
-        <v>1</v>
-      </c>
       <c r="T105" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U105" s="6">
         <v>1</v>
       </c>
       <c r="V105" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:22" ht="13">
+        <v>1</v>
+      </c>
+      <c r="W105" s="6">
+        <v>1</v>
+      </c>
+      <c r="X105" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" ht="13">
       <c r="A106" s="6" t="s">
         <v>144</v>
       </c>
@@ -7133,16 +7894,22 @@
       </c>
       <c r="M106" s="6"/>
       <c r="N106" s="7"/>
-      <c r="O106" s="12"/>
-      <c r="P106" s="12"/>
-      <c r="Q106" s="13"/>
-      <c r="R106" s="6"/>
-      <c r="S106" s="6"/>
+      <c r="O106" t="s">
+        <v>186</v>
+      </c>
+      <c r="P106" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q106" s="12"/>
+      <c r="R106" s="12"/>
+      <c r="S106" s="13"/>
       <c r="T106" s="6"/>
       <c r="U106" s="6"/>
       <c r="V106" s="6"/>
-    </row>
-    <row r="107" spans="1:22" ht="13">
+      <c r="W106" s="6"/>
+      <c r="X106" s="6"/>
+    </row>
+    <row r="107" spans="1:24" ht="13">
       <c r="A107" s="6" t="s">
         <v>144</v>
       </c>
@@ -7181,32 +7948,38 @@
         <v>63</v>
       </c>
       <c r="N107" s="7"/>
-      <c r="O107" s="12">
+      <c r="O107" t="s">
+        <v>186</v>
+      </c>
+      <c r="P107" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q107" s="12">
         <v>3530</v>
       </c>
-      <c r="P107" s="12">
+      <c r="R107" s="12">
         <v>1014</v>
       </c>
-      <c r="Q107" s="13">
+      <c r="S107" s="13">
         <v>8.3309117615780206</v>
       </c>
-      <c r="R107" s="6">
-        <v>0</v>
-      </c>
-      <c r="S107" s="6">
-        <v>1</v>
-      </c>
       <c r="T107" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U107" s="6">
         <v>1</v>
       </c>
       <c r="V107" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:22" ht="13">
+        <v>1</v>
+      </c>
+      <c r="W107" s="6">
+        <v>1</v>
+      </c>
+      <c r="X107" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" ht="13">
       <c r="A108" s="6" t="s">
         <v>144</v>
       </c>
@@ -7243,14 +8016,20 @@
       </c>
       <c r="M108" s="6"/>
       <c r="N108" s="7"/>
-      <c r="O108" s="12"/>
-      <c r="P108" s="12"/>
-      <c r="Q108" s="13"/>
-      <c r="R108" s="6"/>
-      <c r="S108" s="6"/>
+      <c r="O108" t="s">
+        <v>186</v>
+      </c>
+      <c r="P108" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q108" s="12"/>
+      <c r="R108" s="12"/>
+      <c r="S108" s="13"/>
       <c r="T108" s="6"/>
       <c r="U108" s="6"/>
       <c r="V108" s="6"/>
+      <c r="W108" s="6"/>
+      <c r="X108" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -7269,39 +8048,29 @@
     <mergeCell ref="N33:N34"/>
     <mergeCell ref="N35:N36"/>
   </mergeCells>
-  <conditionalFormatting sqref="M1:M108">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>"other iso"</formula>
+  <conditionalFormatting sqref="A3:X108">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>MOD(ROW()-3,4) &lt;= 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M108">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"other iso"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"supported"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M108">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"likely"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M108">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"unsupported"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M108">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"end exon"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M108">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"investigate"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:V108">
-    <cfRule type="expression" dxfId="0" priority="7">
-      <formula>MOD(ROW()-3,4) &lt;= 1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
